--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H2">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I2">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J2">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N2">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O2">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P2">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q2">
-        <v>1336.313302998604</v>
+        <v>1375.895456905242</v>
       </c>
       <c r="R2">
-        <v>12026.81972698743</v>
+        <v>12383.05911214718</v>
       </c>
       <c r="S2">
-        <v>0.458877767870162</v>
+        <v>0.4356185111674509</v>
       </c>
       <c r="T2">
-        <v>0.458877767870162</v>
+        <v>0.4356185111674509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H3">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I3">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J3">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N3">
         <v>27.836209</v>
       </c>
       <c r="O3">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P3">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q3">
-        <v>214.6066400242617</v>
+        <v>186.4654791688424</v>
       </c>
       <c r="R3">
-        <v>1931.459760218355</v>
+        <v>1678.189312519582</v>
       </c>
       <c r="S3">
-        <v>0.07369395763962659</v>
+        <v>0.05903632722384274</v>
       </c>
       <c r="T3">
-        <v>0.07369395763962659</v>
+        <v>0.05903632722384275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H4">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I4">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J4">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N4">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q4">
-        <v>754.85982001518</v>
+        <v>1353.188752805183</v>
       </c>
       <c r="R4">
-        <v>6793.73838013662</v>
+        <v>12178.69877524664</v>
       </c>
       <c r="S4">
-        <v>0.2592119591162972</v>
+        <v>0.4284294034602156</v>
       </c>
       <c r="T4">
-        <v>0.2592119591162972</v>
+        <v>0.4284294034602155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.474317</v>
       </c>
       <c r="I5">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J5">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N5">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O5">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P5">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q5">
-        <v>66.91171437269979</v>
+        <v>79.29102200654678</v>
       </c>
       <c r="R5">
-        <v>602.2054293542981</v>
+        <v>713.619198058921</v>
       </c>
       <c r="S5">
-        <v>0.02297687081825182</v>
+        <v>0.02510411440206995</v>
       </c>
       <c r="T5">
-        <v>0.02297687081825182</v>
+        <v>0.02510411440206995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.474317</v>
       </c>
       <c r="I6">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J6">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N6">
         <v>27.836209</v>
       </c>
       <c r="O6">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P6">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q6">
         <v>10.74575712713922</v>
       </c>
       <c r="R6">
-        <v>96.71181414425301</v>
+        <v>96.711814144253</v>
       </c>
       <c r="S6">
-        <v>0.003689994729163963</v>
+        <v>0.003402184880834153</v>
       </c>
       <c r="T6">
-        <v>0.003689994729163962</v>
+        <v>0.003402184880834153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.474317</v>
       </c>
       <c r="I7">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J7">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N7">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O7">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P7">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q7">
-        <v>37.797247512948</v>
+        <v>77.98246490254733</v>
       </c>
       <c r="R7">
-        <v>340.175227616532</v>
+        <v>701.842184122926</v>
       </c>
       <c r="S7">
-        <v>0.01297922914593311</v>
+        <v>0.02468981570331272</v>
       </c>
       <c r="T7">
-        <v>0.01297922914593311</v>
+        <v>0.02468981570331272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H8">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I8">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J8">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N8">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O8">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P8">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q8">
-        <v>284.5002148424267</v>
+        <v>35.35511471946056</v>
       </c>
       <c r="R8">
-        <v>2560.50193358184</v>
+        <v>318.196032475145</v>
       </c>
       <c r="S8">
-        <v>0.09769477206619617</v>
+        <v>0.01119368652534662</v>
       </c>
       <c r="T8">
-        <v>0.09769477206619614</v>
+        <v>0.01119368652534662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H9">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I9">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J9">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N9">
         <v>27.836209</v>
       </c>
       <c r="O9">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P9">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q9">
-        <v>45.68961115369333</v>
+        <v>4.791431190609444</v>
       </c>
       <c r="R9">
-        <v>411.20650038324</v>
+        <v>43.122880715485</v>
       </c>
       <c r="S9">
-        <v>0.01568939464571384</v>
+        <v>0.001517001972162425</v>
       </c>
       <c r="T9">
-        <v>0.01568939464571383</v>
+        <v>0.001517001972162425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H10">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I10">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J10">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N10">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O10">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P10">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q10">
-        <v>160.70915442384</v>
+        <v>34.77164151709667</v>
       </c>
       <c r="R10">
-        <v>1446.38238981456</v>
+        <v>312.94477365387</v>
       </c>
       <c r="S10">
-        <v>0.05518605396865524</v>
+        <v>0.01100895466476503</v>
       </c>
       <c r="T10">
-        <v>0.05518605396865524</v>
+        <v>0.01100895466476503</v>
       </c>
     </row>
   </sheetData>
